--- a/data-raw/it_us/us/american_comunity_survey_2018/poverty/to_select_pov.xlsx
+++ b/data-raw/it_us/us/american_comunity_survey_2018/poverty/to_select_pov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/extractus/data-raw/american_comunity_survey_2018/poverty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heverz/Documents/R_projects/covid19census/data-raw/it_us/us/american_comunity_survey_2018/poverty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEAF7BE-3EC2-2646-A08A-4775A89BE2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853D1CF-8E31-EC47-B8B8-BFFEBBF4B201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="to_select_pov" sheetId="1" r:id="rId1"/>
@@ -96,75 +96,39 @@
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_age_under_18_years_under_5_years</t>
   </si>
   <si>
-    <t>total_determination_5-17y</t>
-  </si>
-  <si>
     <t>estimate_total_population_for_whom_poverty_status_is_determined_age_under_18_years_5_to_17_years</t>
   </si>
   <si>
-    <t>total_poverty_5-17y</t>
-  </si>
-  <si>
     <t>estimate_below_poverty_level_population_for_whom_poverty_status_is_determined_age_under_18_years_5_to_17_years</t>
   </si>
   <si>
-    <t>perc_poverty_5-17y</t>
-  </si>
-  <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_age_under_18_years_5_to_17_years</t>
   </si>
   <si>
-    <t>total_determination_18-64y</t>
-  </si>
-  <si>
     <t>estimate_total_population_for_whom_poverty_status_is_determined_age_18_to_64_years</t>
   </si>
   <si>
-    <t>total_poverty_18-64y</t>
-  </si>
-  <si>
     <t>estimate_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years</t>
   </si>
   <si>
-    <t>perc_poverty_18-64y</t>
-  </si>
-  <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years</t>
   </si>
   <si>
-    <t>total_determination_18-34y</t>
-  </si>
-  <si>
     <t>estimate_total_population_for_whom_poverty_status_is_determined_age_18_to_64_years_18_to_34_years</t>
   </si>
   <si>
-    <t>total_poverty_18-34y</t>
-  </si>
-  <si>
     <t>estimate_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years_18_to_34_years</t>
   </si>
   <si>
-    <t>perc_poverty_18-34y</t>
-  </si>
-  <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years_18_to_34_years</t>
   </si>
   <si>
-    <t>total_determination_35-64y</t>
-  </si>
-  <si>
     <t>estimate_total_population_for_whom_poverty_status_is_determined_age_18_to_64_years_35_to_64_years</t>
   </si>
   <si>
-    <t>total_poverty_35-64y</t>
-  </si>
-  <si>
     <t>estimate_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years_35_to_64_years</t>
   </si>
   <si>
-    <t>perc_poverty_35-64y</t>
-  </si>
-  <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_age_18_to_64_years_35_to_64_years</t>
   </si>
   <si>
@@ -276,21 +240,12 @@
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_race_and_hispanic_or_latino_origin_black_or_african_american_alone</t>
   </si>
   <si>
-    <t>total_determination_americanindian-alaskanative</t>
-  </si>
-  <si>
     <t>estimate_total_population_for_whom_poverty_status_is_determined_race_and_hispanic_or_latino_origin_american_indian_and_alaska_native_alone</t>
   </si>
   <si>
-    <t>total_poverty_americanindian-alaskanative</t>
-  </si>
-  <si>
     <t>estimate_below_poverty_level_population_for_whom_poverty_status_is_determined_race_and_hispanic_or_latino_origin_american_indian_and_alaska_native_alone</t>
   </si>
   <si>
-    <t>perc_poverty_americanindian-alaskanative</t>
-  </si>
-  <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_race_and_hispanic_or_latino_origin_american_indian_and_alaska_native_alone</t>
   </si>
   <si>
@@ -400,12 +355,57 @@
   </si>
   <si>
     <t>estimate_percent_below_poverty_level_population_for_whom_poverty_status_is_determined_race_and_hispanic_or_latino_origin_white_alone_not_hispanic_or_latino</t>
+  </si>
+  <si>
+    <t>total_determination_5_17y</t>
+  </si>
+  <si>
+    <t>total_poverty_5_17y</t>
+  </si>
+  <si>
+    <t>perc_poverty_5_17y</t>
+  </si>
+  <si>
+    <t>total_determination_18_64y</t>
+  </si>
+  <si>
+    <t>total_poverty_18_64y</t>
+  </si>
+  <si>
+    <t>perc_poverty_18_64y</t>
+  </si>
+  <si>
+    <t>total_determination_18_34y</t>
+  </si>
+  <si>
+    <t>total_poverty_18_34y</t>
+  </si>
+  <si>
+    <t>perc_poverty_18_34y</t>
+  </si>
+  <si>
+    <t>total_determination_35_64y</t>
+  </si>
+  <si>
+    <t>total_poverty_35_64y</t>
+  </si>
+  <si>
+    <t>perc_poverty_35_64y</t>
+  </si>
+  <si>
+    <t>total_determination_americanindian_alaskanative</t>
+  </si>
+  <si>
+    <t>total_poverty_americanindian_alaskanative</t>
+  </si>
+  <si>
+    <t>perc_poverty_americanindian_alaskanative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1239,12 +1239,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="86.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1344,410 +1349,410 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
